--- a/Excel/Книга2.xlsx
+++ b/Excel/Книга2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteBook\Desktop\Тензор тест\success_employee\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteBook\Desktop\Академия шаг\success_analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7755A-B533-405F-A9F1-312F4A0BA6BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1E04E-0B5D-4CA1-8BBC-7A593B98AE8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{93BEE963-71CB-462D-966C-B9D98A227DA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Название проекта</t>
   </si>
@@ -39,34 +39,28 @@
     <t>Дата сдачи факт.</t>
   </si>
   <si>
-    <t>Иванов Р.А.</t>
-  </si>
-  <si>
     <t>план.</t>
   </si>
   <si>
     <t>факт.</t>
   </si>
   <si>
-    <t>Петров И.И.</t>
-  </si>
-  <si>
-    <t>Сидоров М.В.</t>
-  </si>
-  <si>
-    <t>Проект1</t>
-  </si>
-  <si>
-    <t>Проект2</t>
-  </si>
-  <si>
-    <t>Проект3</t>
-  </si>
-  <si>
-    <t>Курочкин А.А.</t>
-  </si>
-  <si>
-    <t>Курочкин.А.А</t>
+    <t>Проект4</t>
+  </si>
+  <si>
+    <t>Проект5</t>
+  </si>
+  <si>
+    <t>Проект6</t>
+  </si>
+  <si>
+    <t>Курочкин М.В.</t>
+  </si>
+  <si>
+    <t>Николаев Н.А.</t>
+  </si>
+  <si>
+    <t>Семёнов А.И.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,11 +122,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,14 +182,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7E2FCF-6E5A-496A-96B8-8C091B48991A}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +519,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -509,73 +532,61 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>13</v>
+      <c r="H2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="4">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="D3" s="5">
-        <v>41547</v>
+        <v>41912</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -593,25 +604,19 @@
       <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="13">
-        <v>3</v>
-      </c>
-      <c r="L3" s="13">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="4">
-        <v>41562</v>
+        <v>41927</v>
       </c>
       <c r="D4" s="5">
-        <v>41563</v>
+        <v>41928</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -629,25 +634,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="13">
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="8">
-        <v>41564</v>
+        <v>41929</v>
       </c>
       <c r="D5" s="9">
-        <v>41572</v>
+        <v>41937</v>
       </c>
       <c r="E5" s="10">
         <v>4</v>
@@ -665,12 +664,6 @@
         <v>3</v>
       </c>
       <c r="J5" s="10">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
         <v>2</v>
       </c>
     </row>

--- a/Excel/Книга2.xlsx
+++ b/Excel/Книга2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteBook\Desktop\Академия шаг\success_analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1E04E-0B5D-4CA1-8BBC-7A593B98AE8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F67B5E-D6F8-470A-A0AA-B67709355EB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{93BEE963-71CB-462D-966C-B9D98A227DA7}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,17 +589,19 @@
         <v>41912</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6">
         <v>2</v>
@@ -618,29 +620,25 @@
       <c r="D4" s="5">
         <v>41928</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>41929</v>
@@ -649,13 +647,13 @@
         <v>41937</v>
       </c>
       <c r="E5" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10">
         <v>5</v>
       </c>
       <c r="G5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="10">
         <v>3</v>
@@ -664,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Книга2.xlsx
+++ b/Excel/Книга2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteBook\Desktop\Академия шаг\success_analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F67B5E-D6F8-470A-A0AA-B67709355EB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE65DC4D-582D-43D7-A987-7BBF987ED386}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{93BEE963-71CB-462D-966C-B9D98A227DA7}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>41913</v>
       </c>
       <c r="D3" s="5">
-        <v>41912</v>
+        <v>41913</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>41929</v>
       </c>
       <c r="D5" s="9">
-        <v>41937</v>
+        <v>41929</v>
       </c>
       <c r="E5" s="10">
         <v>7</v>
